--- a/data/stat probs/jeff green stat probs - condition.xlsx
+++ b/data/stat probs/jeff green stat probs - condition.xlsx
@@ -18,7 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="away 2023 full" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 regular" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="utah 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="225 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="226 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 postseason" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 after 2023 full" sheetId="15" state="visible" r:id="rId15"/>
@@ -35,16 +35,16 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 regular" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 postseason" sheetId="27" state="visible" r:id="rId27"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 after 2023 full" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 postseason" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nop 2023 regular" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nop 2023 full" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 postseason" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nop 2023 regular" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="nop 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 postseason" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3 before 2023 full" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 regular" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="phi 2023 full" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 regular" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 postseason" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mon 2023 full" sheetId="38" state="visible" r:id="rId38"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="39" state="visible" r:id="rId39"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="40" state="visible" r:id="rId40"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="wsh 2023 regular" sheetId="41" state="visible" r:id="rId41"/>
@@ -606,28 +606,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -1472,22 +1472,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -1890,22 +1890,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2148,22 +2148,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2374,22 +2374,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -2632,28 +2632,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2954,28 +2954,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3276,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3502,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3728,22 +3728,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4050,22 +4050,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -4372,16 +4372,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4662,22 +4662,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5080,16 +5080,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5274,16 +5274,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5292,10 +5292,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -5564,10 +5564,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5576,10 +5576,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -5790,10 +5790,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5802,10 +5802,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -6016,16 +6016,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6242,16 +6242,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6468,16 +6468,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6630,16 +6630,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -6792,16 +6792,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7018,16 +7018,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -7244,22 +7244,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -7438,28 +7438,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -8304,28 +8304,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -8658,28 +8658,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -9524,28 +9524,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -10070,28 +10070,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10392,28 +10392,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -10938,28 +10938,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -11484,28 +11484,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -11934,28 +11934,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -12384,28 +12384,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -12930,22 +12930,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13316,22 +13316,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -13702,28 +13702,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -14120,28 +14120,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -14538,28 +14538,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -14988,28 +14988,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -15438,28 +15438,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -15825,7 +15825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15888,28 +15888,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -15926,22 +15926,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
         <v>67</v>
-      </c>
-      <c r="H3" t="n">
-        <v>33</v>
-      </c>
-      <c r="I3" t="n">
-        <v>44</v>
-      </c>
-      <c r="J3" t="n">
-        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -15958,16 +15958,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -15996,10 +15996,10 @@
         <v>67</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -16016,16 +16016,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -16048,16 +16048,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -16080,16 +16080,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D8" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -16112,16 +16112,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D9" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -16165,134 +16165,6 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>22</v>
-      </c>
-      <c r="D11" t="n">
-        <v>78</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>22</v>
-      </c>
-      <c r="D12" t="n">
-        <v>78</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>11</v>
-      </c>
-      <c r="D13" t="n">
-        <v>89</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>11</v>
-      </c>
-      <c r="D14" t="n">
-        <v>89</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -16370,28 +16242,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -17168,6 +17040,810 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>33</v>
+      </c>
+      <c r="F2" t="n">
+        <v>67</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>67</v>
+      </c>
+      <c r="J2" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>33</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>33</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>67</v>
+      </c>
+      <c r="F4" t="n">
+        <v>33</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>100</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>33</v>
+      </c>
+      <c r="F5" t="n">
+        <v>67</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>33</v>
+      </c>
+      <c r="F6" t="n">
+        <v>67</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
+        <v>67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33</v>
+      </c>
+      <c r="E8" t="n">
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67</v>
+      </c>
+      <c r="D9" t="n">
+        <v>33</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33</v>
+      </c>
+      <c r="F9" t="n">
+        <v>67</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" t="n">
+        <v>67</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>90</v>
+      </c>
+      <c r="E2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F2" t="n">
+        <v>70</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" t="n">
+        <v>70</v>
+      </c>
+      <c r="J2" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30</v>
+      </c>
+      <c r="G3" t="n">
+        <v>80</v>
+      </c>
+      <c r="H3" t="n">
+        <v>20</v>
+      </c>
+      <c r="I3" t="n">
+        <v>30</v>
+      </c>
+      <c r="J3" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" t="n">
+        <v>40</v>
+      </c>
+      <c r="G4" t="n">
+        <v>30</v>
+      </c>
+      <c r="H4" t="n">
+        <v>70</v>
+      </c>
+      <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>90</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" t="n">
+        <v>30</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="n">
+        <v>90</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>80</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="n">
+        <v>30</v>
+      </c>
+      <c r="F6" t="n">
+        <v>70</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>60</v>
+      </c>
+      <c r="D7" t="n">
+        <v>40</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>90</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>60</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>90</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>40</v>
+      </c>
+      <c r="D10" t="n">
+        <v>60</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>70</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20</v>
+      </c>
+      <c r="D12" t="n">
+        <v>80</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" t="n">
+        <v>80</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17236,28 +17912,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -17268,22 +17944,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H3" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
         <v>50</v>
@@ -17300,22 +17976,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -17332,10 +18008,10 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -17396,10 +18072,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -17553,7 +18229,1165 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29</v>
+      </c>
+      <c r="F2" t="n">
+        <v>71</v>
+      </c>
+      <c r="G2" t="n">
+        <v>29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>71</v>
+      </c>
+      <c r="I2" t="n">
+        <v>64</v>
+      </c>
+      <c r="J2" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>86</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>71</v>
+      </c>
+      <c r="H3" t="n">
+        <v>29</v>
+      </c>
+      <c r="I3" t="n">
+        <v>36</v>
+      </c>
+      <c r="J3" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21</v>
+      </c>
+      <c r="H4" t="n">
+        <v>79</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>86</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21</v>
+      </c>
+      <c r="F5" t="n">
+        <v>79</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7</v>
+      </c>
+      <c r="H5" t="n">
+        <v>93</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>71</v>
+      </c>
+      <c r="D6" t="n">
+        <v>29</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>79</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>86</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43</v>
+      </c>
+      <c r="D8" t="n">
+        <v>57</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>93</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>93</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>36</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+      <c r="D12" t="n">
+        <v>86</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14</v>
+      </c>
+      <c r="D13" t="n">
+        <v>86</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>val</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob over</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>pts prob under</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob over</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reb prob under</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob over</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ast prob under</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob over</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>3pm prob under</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>50</v>
+      </c>
+      <c r="F4" t="n">
+        <v>50</v>
+      </c>
+      <c r="G4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
+      </c>
+      <c r="D7" t="n">
+        <v>50</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>50</v>
+      </c>
+      <c r="D8" t="n">
+        <v>50</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>50</v>
+      </c>
+      <c r="D9" t="n">
+        <v>50</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" t="n">
+        <v>50</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17622,22 +19456,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -17654,28 +19488,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="H3" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -17686,22 +19520,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F4" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -17718,22 +19552,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H5" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -17750,16 +19584,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -17782,10 +19616,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -17814,10 +19648,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -17846,10 +19680,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -17878,10 +19712,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -17910,10 +19744,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -17942,10 +19776,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -17974,10 +19808,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -18006,10 +19840,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D14" t="n">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -18027,2000 +19861,6 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>67</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>67</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>67</v>
-      </c>
-      <c r="F3" t="n">
-        <v>33</v>
-      </c>
-      <c r="G3" t="n">
-        <v>100</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33</v>
-      </c>
-      <c r="J3" t="n">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>100</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>67</v>
-      </c>
-      <c r="F4" t="n">
-        <v>33</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>100</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>33</v>
-      </c>
-      <c r="F5" t="n">
-        <v>67</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>33</v>
-      </c>
-      <c r="F6" t="n">
-        <v>67</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>33</v>
-      </c>
-      <c r="F7" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67</v>
-      </c>
-      <c r="D8" t="n">
-        <v>33</v>
-      </c>
-      <c r="E8" t="n">
-        <v>33</v>
-      </c>
-      <c r="F8" t="n">
-        <v>67</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" t="n">
-        <v>33</v>
-      </c>
-      <c r="E9" t="n">
-        <v>33</v>
-      </c>
-      <c r="F9" t="n">
-        <v>67</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>33</v>
-      </c>
-      <c r="D10" t="n">
-        <v>67</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>90</v>
-      </c>
-      <c r="D3" t="n">
-        <v>10</v>
-      </c>
-      <c r="E3" t="n">
-        <v>70</v>
-      </c>
-      <c r="F3" t="n">
-        <v>30</v>
-      </c>
-      <c r="G3" t="n">
-        <v>80</v>
-      </c>
-      <c r="H3" t="n">
-        <v>20</v>
-      </c>
-      <c r="I3" t="n">
-        <v>30</v>
-      </c>
-      <c r="J3" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10</v>
-      </c>
-      <c r="E4" t="n">
-        <v>60</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-      <c r="G4" t="n">
-        <v>30</v>
-      </c>
-      <c r="H4" t="n">
-        <v>70</v>
-      </c>
-      <c r="I4" t="n">
-        <v>20</v>
-      </c>
-      <c r="J4" t="n">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>90</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10</v>
-      </c>
-      <c r="E5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F5" t="n">
-        <v>70</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10</v>
-      </c>
-      <c r="H5" t="n">
-        <v>90</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>80</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="n">
-        <v>30</v>
-      </c>
-      <c r="F6" t="n">
-        <v>70</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>60</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>20</v>
-      </c>
-      <c r="F7" t="n">
-        <v>80</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="n">
-        <v>90</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>40</v>
-      </c>
-      <c r="D9" t="n">
-        <v>60</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>90</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>40</v>
-      </c>
-      <c r="D10" t="n">
-        <v>60</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" t="n">
-        <v>70</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20</v>
-      </c>
-      <c r="D12" t="n">
-        <v>80</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20</v>
-      </c>
-      <c r="D13" t="n">
-        <v>80</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>75</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>50</v>
-      </c>
-      <c r="H3" t="n">
-        <v>50</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>75</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>75</v>
-      </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>25</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D8" t="n">
-        <v>75</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>25</v>
-      </c>
-      <c r="D9" t="n">
-        <v>75</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>25</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>25</v>
-      </c>
-      <c r="D11" t="n">
-        <v>75</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>val</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob over</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pts prob under</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob over</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reb prob under</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob over</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>ast prob under</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob over</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>3pm prob under</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>100</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>86</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14</v>
-      </c>
-      <c r="E3" t="n">
-        <v>71</v>
-      </c>
-      <c r="F3" t="n">
-        <v>29</v>
-      </c>
-      <c r="G3" t="n">
-        <v>71</v>
-      </c>
-      <c r="H3" t="n">
-        <v>29</v>
-      </c>
-      <c r="I3" t="n">
-        <v>36</v>
-      </c>
-      <c r="J3" t="n">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>86</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14</v>
-      </c>
-      <c r="E4" t="n">
-        <v>50</v>
-      </c>
-      <c r="F4" t="n">
-        <v>50</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21</v>
-      </c>
-      <c r="H4" t="n">
-        <v>79</v>
-      </c>
-      <c r="I4" t="n">
-        <v>14</v>
-      </c>
-      <c r="J4" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>86</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>21</v>
-      </c>
-      <c r="F5" t="n">
-        <v>79</v>
-      </c>
-      <c r="G5" t="n">
-        <v>7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>93</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>71</v>
-      </c>
-      <c r="D6" t="n">
-        <v>29</v>
-      </c>
-      <c r="E6" t="n">
-        <v>21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>79</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>14</v>
-      </c>
-      <c r="F7" t="n">
-        <v>86</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>43</v>
-      </c>
-      <c r="D8" t="n">
-        <v>57</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>93</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>36</v>
-      </c>
-      <c r="D9" t="n">
-        <v>64</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7</v>
-      </c>
-      <c r="F9" t="n">
-        <v>93</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>36</v>
-      </c>
-      <c r="D10" t="n">
-        <v>64</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>29</v>
-      </c>
-      <c r="D11" t="n">
-        <v>71</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>14</v>
-      </c>
-      <c r="D12" t="n">
-        <v>86</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14</v>
-      </c>
-      <c r="D13" t="n">
-        <v>86</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -20035,7 +19875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20098,22 +19938,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20136,16 +19976,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -20168,16 +20008,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -20194,22 +20034,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -20226,16 +20066,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -20247,134 +20087,6 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
         <v>100</v>
       </c>
     </row>
@@ -20389,7 +20101,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20452,22 +20164,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -20490,16 +20202,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -20522,16 +20234,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="F4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -20548,22 +20260,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -20580,16 +20292,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -20612,10 +20324,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D7" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -20644,10 +20356,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -20676,10 +20388,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -20708,10 +20420,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -20729,6 +20441,134 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12</v>
+      </c>
+      <c r="D11" t="n">
+        <v>88</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
+        <v>88</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12</v>
+      </c>
+      <c r="D13" t="n">
+        <v>88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>88</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>100</v>
       </c>
     </row>
@@ -20806,28 +20646,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -21256,28 +21096,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -22122,28 +21962,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22572,28 +22412,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23022,28 +22862,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23472,28 +23312,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -23794,28 +23634,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24116,28 +23956,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -24662,28 +24502,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25208,28 +25048,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25690,28 +25530,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -26172,28 +26012,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26654,28 +26494,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -27104,28 +26944,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27586,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -27812,22 +27652,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28038,22 +27878,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28392,22 +28232,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -28746,28 +28586,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -29132,28 +28972,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -29518,28 +29358,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -29808,28 +29648,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -30098,28 +29938,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -30580,28 +30420,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -31446,28 +31286,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -31928,22 +31768,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32154,22 +31994,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -32380,28 +32220,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32862,28 +32702,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33344,22 +33184,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -33794,22 +33634,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34244,22 +34084,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34700,16 +34540,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -34856,22 +34696,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -35306,28 +35146,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -35852,28 +35692,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -36718,28 +36558,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -37584,28 +37424,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38450,28 +38290,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -39316,22 +39156,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39798,28 +39638,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -40184,28 +40024,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -40666,22 +40506,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41084,22 +40924,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41502,22 +41342,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -41824,28 +41664,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
@@ -42178,22 +42018,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -42500,28 +42340,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -42822,28 +42662,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -43272,28 +43112,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -43722,28 +43562,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -44268,28 +44108,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -44814,22 +44654,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45104,22 +44944,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45394,22 +45234,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45684,22 +45524,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -45974,28 +45814,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -46520,28 +46360,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -46842,28 +46682,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -47164,16 +47004,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -47326,16 +47166,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -47488,28 +47328,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -47906,28 +47746,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -48164,28 +48004,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -48582,22 +48422,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -49000,16 +48840,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -49018,10 +48858,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49322,28 +49162,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
